--- a/data/otras/china_pe.xlsx
+++ b/data/otras/china_pe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diplomado CSC\Proyecto China\data\otras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diplomado CSC\proyecto-china\data\otras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F28A1C-E1EC-413D-83B4-4154026446B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DACD67-7689-4388-8A76-6606DAAEA090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{11F9AED5-3E65-4084-B110-6E9110BE8285}"/>
   </bookViews>
@@ -1794,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0044E7AC-E319-4AF8-8EB9-456FCDEAA3A8}">
   <dimension ref="A1:K217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
